--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_1_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_1_bus_resonant.xlsx
@@ -752,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.04659506804995</v>
+        <v>1.046595068049951</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523821</v>
+        <v>0.8909260930523832</v>
       </c>
       <c r="P2">
         <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>25.1885020403398</v>
+        <v>25.18850204033982</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314906</v>
+        <v>-89.28600430314907</v>
       </c>
       <c r="S2">
         <v>155.0677071882993</v>
@@ -778,55 +778,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.759944874248876</v>
+        <v>4.75994487424885</v>
       </c>
       <c r="D3">
-        <v>4.759944874248876</v>
+        <v>4.75994487424885</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.96310908950736</v>
+        <v>54.96310908950706</v>
       </c>
       <c r="G3">
-        <v>54.96310908950736</v>
+        <v>54.96310908950706</v>
       </c>
       <c r="H3">
-        <v>0.01228991329332984</v>
+        <v>6.110149588943065</v>
       </c>
       <c r="I3">
-        <v>51.69459002692074</v>
+        <v>-1152.63158894117</v>
       </c>
       <c r="J3">
-        <v>0.1077319054037681</v>
+        <v>0.1077319054656351</v>
       </c>
       <c r="K3">
-        <v>2.308438694626183</v>
+        <v>2.308438694744775</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135608</v>
+        <v>0.1077319054056449</v>
       </c>
       <c r="M3">
-        <v>2.30843869464225</v>
+        <v>2.308438694657411</v>
       </c>
       <c r="N3">
-        <v>0.9526279648020818</v>
+        <v>0.952627964802082</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648025192</v>
+        <v>0.9526279648025191</v>
       </c>
       <c r="Q3">
-        <v>-4.014220150139428E-12</v>
+        <v>-3.874005566489526E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999999999899</v>
+        <v>-179.9999999999901</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279647753105</v>
+        <v>0.9526279647753106</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0.9526279648292905</v>
       </c>
       <c r="Q4">
-        <v>1.415112117114867E-09</v>
+        <v>1.41524215924741E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999985764</v>
+        <v>179.9999999985762</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647663868</v>
+        <v>0.9526279647663869</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -938,13 +938,13 @@
         <v>0.952627964838214</v>
       </c>
       <c r="Q5">
-        <v>1.888142980812409E-09</v>
+        <v>1.88827911334938E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999981033</v>
+        <v>179.9999999981031</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647663868</v>
+        <v>0.952627964766387</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382141</v>
+        <v>0.952627964838214</v>
       </c>
       <c r="Q6">
-        <v>1.888140347700974E-09</v>
+        <v>1.888273373997414E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999981033</v>
+        <v>179.9999999981031</v>
       </c>
     </row>
   </sheetData>
@@ -1128,10 +1128,10 @@
         <v>1.06511527042063</v>
       </c>
       <c r="Q2">
-        <v>27.70356907604971</v>
+        <v>27.70356907604972</v>
       </c>
       <c r="R2">
-        <v>-91.92524130249696</v>
+        <v>-91.92524130249694</v>
       </c>
       <c r="S2">
         <v>151.4402860785753</v>
@@ -1145,52 +1145,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.010953897753578</v>
+        <v>2.010953897753573</v>
       </c>
       <c r="D3">
-        <v>2.010953897753578</v>
+        <v>2.010953897753573</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.22049548391911</v>
+        <v>23.22049548391905</v>
       </c>
       <c r="G3">
-        <v>23.22049548391911</v>
+        <v>23.22049548391905</v>
       </c>
       <c r="H3">
-        <v>0.01228991329332984</v>
+        <v>6.110149588943065</v>
       </c>
       <c r="I3">
-        <v>51.69459002692074</v>
+        <v>-1152.63158894117</v>
       </c>
       <c r="J3">
-        <v>0.1077319054037681</v>
+        <v>0.1077319054656351</v>
       </c>
       <c r="K3">
-        <v>2.308438694626183</v>
+        <v>2.308438694744775</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135608</v>
+        <v>0.1077319054056449</v>
       </c>
       <c r="M3">
-        <v>2.30843869464225</v>
+        <v>2.308438694657411</v>
       </c>
       <c r="N3">
-        <v>1.107498627573925</v>
+        <v>1.107498627573924</v>
       </c>
       <c r="O3">
-        <v>0.7109795688765316</v>
+        <v>0.7109795688765318</v>
       </c>
       <c r="P3">
-        <v>0.9171656569381399</v>
+        <v>0.9171656569381406</v>
       </c>
       <c r="Q3">
-        <v>17.92198046293677</v>
+        <v>17.92198046293679</v>
       </c>
       <c r="R3">
-        <v>-106.5279586928746</v>
+        <v>-106.5279586928745</v>
       </c>
       <c r="S3">
         <v>158.1868465769574</v>
@@ -1243,13 +1243,13 @@
         <v>0.7109795688760389</v>
       </c>
       <c r="P4">
-        <v>0.917165656953127</v>
+        <v>0.9171656569531276</v>
       </c>
       <c r="Q4">
-        <v>17.9219804633674</v>
+        <v>17.92198046336742</v>
       </c>
       <c r="R4">
-        <v>-106.5279586904451</v>
+        <v>-106.527958690445</v>
       </c>
       <c r="S4">
         <v>158.1868465770594</v>
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.107498627557165</v>
+        <v>1.107498627557164</v>
       </c>
       <c r="O5">
         <v>0.7109795688758745</v>
       </c>
       <c r="P5">
-        <v>0.9171656569581227</v>
+        <v>0.9171656569581235</v>
       </c>
       <c r="Q5">
-        <v>17.92198046351094</v>
+        <v>17.92198046351096</v>
       </c>
       <c r="R5">
-        <v>-106.5279586896352</v>
+        <v>-106.5279586896351</v>
       </c>
       <c r="S5">
         <v>158.1868465770935</v>
@@ -1361,13 +1361,13 @@
         <v>0.7109795688758744</v>
       </c>
       <c r="P6">
-        <v>0.9171656569581227</v>
+        <v>0.9171656569581235</v>
       </c>
       <c r="Q6">
-        <v>17.92198046351094</v>
+        <v>17.92198046351096</v>
       </c>
       <c r="R6">
-        <v>-106.5279586896352</v>
+        <v>-106.5279586896351</v>
       </c>
       <c r="S6">
         <v>158.1868465770935</v>
@@ -1495,10 +1495,10 @@
         <v>1.06511527042063</v>
       </c>
       <c r="Q2">
-        <v>27.70356907604971</v>
+        <v>27.70356907604972</v>
       </c>
       <c r="R2">
-        <v>-91.92524130249696</v>
+        <v>-91.92524130249694</v>
       </c>
       <c r="S2">
         <v>151.4402860785753</v>
@@ -1512,52 +1512,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.010953897753578</v>
+        <v>2.010953897753573</v>
       </c>
       <c r="D3">
-        <v>2.010953897753578</v>
+        <v>2.010953897753573</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.22049548391911</v>
+        <v>23.22049548391905</v>
       </c>
       <c r="G3">
-        <v>23.22049548391911</v>
+        <v>23.22049548391905</v>
       </c>
       <c r="H3">
-        <v>0.01228991329332984</v>
+        <v>6.110149588943065</v>
       </c>
       <c r="I3">
-        <v>51.69459002692074</v>
+        <v>-1152.63158894117</v>
       </c>
       <c r="J3">
-        <v>0.1077319054037681</v>
+        <v>0.1077319054656351</v>
       </c>
       <c r="K3">
-        <v>2.308438694626183</v>
+        <v>2.308438694744775</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135608</v>
+        <v>0.1077319054056449</v>
       </c>
       <c r="M3">
-        <v>2.30843869464225</v>
+        <v>2.308438694657411</v>
       </c>
       <c r="N3">
-        <v>1.107498627573925</v>
+        <v>1.107498627573924</v>
       </c>
       <c r="O3">
-        <v>0.7109795688765316</v>
+        <v>0.7109795688765318</v>
       </c>
       <c r="P3">
-        <v>0.9171656569381399</v>
+        <v>0.9171656569381406</v>
       </c>
       <c r="Q3">
-        <v>17.92198046293677</v>
+        <v>17.92198046293679</v>
       </c>
       <c r="R3">
-        <v>-106.5279586928746</v>
+        <v>-106.5279586928745</v>
       </c>
       <c r="S3">
         <v>158.1868465769574</v>
@@ -1610,13 +1610,13 @@
         <v>0.7109795688760389</v>
       </c>
       <c r="P4">
-        <v>0.917165656953127</v>
+        <v>0.9171656569531276</v>
       </c>
       <c r="Q4">
-        <v>17.9219804633674</v>
+        <v>17.92198046336742</v>
       </c>
       <c r="R4">
-        <v>-106.5279586904451</v>
+        <v>-106.527958690445</v>
       </c>
       <c r="S4">
         <v>158.1868465770594</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.107498627557165</v>
+        <v>1.107498627557164</v>
       </c>
       <c r="O5">
         <v>0.7109795688758745</v>
       </c>
       <c r="P5">
-        <v>0.9171656569581227</v>
+        <v>0.9171656569581235</v>
       </c>
       <c r="Q5">
-        <v>17.92198046351094</v>
+        <v>17.92198046351096</v>
       </c>
       <c r="R5">
-        <v>-106.5279586896352</v>
+        <v>-106.5279586896351</v>
       </c>
       <c r="S5">
         <v>158.1868465770935</v>
@@ -1728,13 +1728,13 @@
         <v>0.7109795688758744</v>
       </c>
       <c r="P6">
-        <v>0.9171656569581227</v>
+        <v>0.9171656569581235</v>
       </c>
       <c r="Q6">
-        <v>17.92198046351094</v>
+        <v>17.92198046351096</v>
       </c>
       <c r="R6">
-        <v>-106.5279586896352</v>
+        <v>-106.5279586896351</v>
       </c>
       <c r="S6">
         <v>158.1868465770935</v>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9477232070952269</v>
+        <v>0.9477232070952282</v>
       </c>
       <c r="O2">
-        <v>0.7936674232739481</v>
+        <v>0.7936674232739562</v>
       </c>
       <c r="P2">
-        <v>0.9574835309888192</v>
+        <v>0.9574835309888213</v>
       </c>
       <c r="Q2">
-        <v>24.7515879761013</v>
+        <v>24.75158797610153</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897121</v>
+        <v>-89.22492623897112</v>
       </c>
       <c r="S2">
-        <v>155.5173957043593</v>
+        <v>155.5173957043591</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1879,55 +1879,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.133684588661914</v>
+        <v>4.133684588661755</v>
       </c>
       <c r="D3">
-        <v>4.133684588661914</v>
+        <v>4.133684588661755</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.73167820017927</v>
+        <v>47.73167820017744</v>
       </c>
       <c r="G3">
-        <v>47.73167820017927</v>
+        <v>47.73167820017744</v>
       </c>
       <c r="H3">
-        <v>0.02360758232897998</v>
+        <v>11.73126388223656</v>
       </c>
       <c r="I3">
-        <v>51.70817167030347</v>
+        <v>-1152.612643848088</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814905</v>
+        <v>0.1153518595431223</v>
       </c>
       <c r="K3">
-        <v>2.416397540693368</v>
+        <v>2.416397540812901</v>
       </c>
       <c r="L3">
-        <v>0.115351859471408</v>
+        <v>0.1153518594637903</v>
       </c>
       <c r="M3">
-        <v>2.416397540675161</v>
+        <v>2.416397540689334</v>
       </c>
       <c r="N3">
-        <v>0.8660254037841223</v>
+        <v>0.8660254037841184</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037841825</v>
+        <v>0.8660254037841867</v>
       </c>
       <c r="Q3">
-        <v>3.083882942580094E-11</v>
+        <v>3.209885720007802E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999999606</v>
+        <v>179.9999999999593</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.866025403759785</v>
+        <v>0.8660254037597814</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.86602540380852</v>
+        <v>0.8660254038085242</v>
       </c>
       <c r="Q4">
-        <v>2.755540771397582E-09</v>
+        <v>2.75678850589301E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999972359</v>
+        <v>179.9999999972346</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037516726</v>
+        <v>0.866025403751669</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254038166324</v>
+        <v>0.8660254038166366</v>
       </c>
       <c r="Q5">
-        <v>3.663772375618115E-09</v>
+        <v>3.665022658137683E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999963276</v>
+        <v>179.9999999963264</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037516726</v>
+        <v>0.8660254037516688</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254038166324</v>
+        <v>0.8660254038166366</v>
       </c>
       <c r="Q6">
-        <v>3.663771608182644E-09</v>
+        <v>3.665019484981992E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999963277</v>
+        <v>179.9999999963264</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9477232070952269</v>
+        <v>0.9477232070952282</v>
       </c>
       <c r="O2">
-        <v>0.7936674232739481</v>
+        <v>0.7936674232739562</v>
       </c>
       <c r="P2">
-        <v>0.9574835309888192</v>
+        <v>0.9574835309888213</v>
       </c>
       <c r="Q2">
-        <v>24.7515879761013</v>
+        <v>24.75158797610153</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897121</v>
+        <v>-89.22492623897112</v>
       </c>
       <c r="S2">
-        <v>155.5173957043593</v>
+        <v>155.5173957043591</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2246,55 +2246,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.133684588661914</v>
+        <v>4.133684588661755</v>
       </c>
       <c r="D3">
-        <v>4.133684588661914</v>
+        <v>4.133684588661755</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.73167820017927</v>
+        <v>47.73167820017744</v>
       </c>
       <c r="G3">
-        <v>47.73167820017927</v>
+        <v>47.73167820017744</v>
       </c>
       <c r="H3">
-        <v>0.02360758232897998</v>
+        <v>11.73126388223656</v>
       </c>
       <c r="I3">
-        <v>51.70817167030347</v>
+        <v>-1152.612643848088</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814905</v>
+        <v>0.1153518595431223</v>
       </c>
       <c r="K3">
-        <v>2.416397540693368</v>
+        <v>2.416397540812901</v>
       </c>
       <c r="L3">
-        <v>0.115351859471408</v>
+        <v>0.1153518594637903</v>
       </c>
       <c r="M3">
-        <v>2.416397540675161</v>
+        <v>2.416397540689334</v>
       </c>
       <c r="N3">
-        <v>0.8660254037841223</v>
+        <v>0.8660254037841184</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037841825</v>
+        <v>0.8660254037841867</v>
       </c>
       <c r="Q3">
-        <v>3.083882942580094E-11</v>
+        <v>3.209885720007802E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999999606</v>
+        <v>179.9999999999593</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.866025403759785</v>
+        <v>0.8660254037597814</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.86602540380852</v>
+        <v>0.8660254038085242</v>
       </c>
       <c r="Q4">
-        <v>2.755540771397582E-09</v>
+        <v>2.75678850589301E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999972359</v>
+        <v>179.9999999972346</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037516726</v>
+        <v>0.866025403751669</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254038166324</v>
+        <v>0.8660254038166366</v>
       </c>
       <c r="Q5">
-        <v>3.663772375618115E-09</v>
+        <v>3.665022658137683E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999963276</v>
+        <v>179.9999999963264</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037516726</v>
+        <v>0.8660254037516688</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254038166324</v>
+        <v>0.8660254038166366</v>
       </c>
       <c r="Q6">
-        <v>3.663771608182644E-09</v>
+        <v>3.665019484981992E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999963277</v>
+        <v>179.9999999963264</v>
       </c>
     </row>
   </sheetData>
@@ -2587,19 +2587,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9949806626618445</v>
+        <v>0.9949806626618443</v>
       </c>
       <c r="O2">
-        <v>0.9175617791399003</v>
+        <v>0.9175617791399011</v>
       </c>
       <c r="P2">
-        <v>0.9648695716021195</v>
+        <v>0.9648695716021203</v>
       </c>
       <c r="Q2">
-        <v>27.43727595412387</v>
+        <v>27.4372759541239</v>
       </c>
       <c r="R2">
-        <v>-92.12802105335015</v>
+        <v>-92.12802105335008</v>
       </c>
       <c r="S2">
         <v>151.6304298035849</v>
@@ -2613,52 +2613,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.795733578210679</v>
+        <v>1.795733578210654</v>
       </c>
       <c r="D3">
-        <v>1.795733578210679</v>
+        <v>1.795733578210654</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.73534529545571</v>
+        <v>20.73534529545542</v>
       </c>
       <c r="G3">
-        <v>20.73534529545571</v>
+        <v>20.73534529545542</v>
       </c>
       <c r="H3">
-        <v>0.02360758232897998</v>
+        <v>11.73126388223656</v>
       </c>
       <c r="I3">
-        <v>51.70817167030347</v>
+        <v>-1152.612643848088</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814905</v>
+        <v>0.1153518595431223</v>
       </c>
       <c r="K3">
-        <v>2.416397540693368</v>
+        <v>2.416397540812901</v>
       </c>
       <c r="L3">
-        <v>0.115351859471408</v>
+        <v>0.1153518594637903</v>
       </c>
       <c r="M3">
-        <v>2.416397540675161</v>
+        <v>2.416397540689334</v>
       </c>
       <c r="N3">
-        <v>1.005693895264115</v>
+        <v>1.005693895264112</v>
       </c>
       <c r="O3">
-        <v>0.63488769518239</v>
+        <v>0.6348876951823911</v>
       </c>
       <c r="P3">
-        <v>0.8307352055776828</v>
+        <v>0.8307352055776863</v>
       </c>
       <c r="Q3">
-        <v>17.57011779536516</v>
+        <v>17.57011779536531</v>
       </c>
       <c r="R3">
-        <v>-106.9885815758096</v>
+        <v>-106.988581575809</v>
       </c>
       <c r="S3">
         <v>158.5647675412735</v>
@@ -2705,19 +2705,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.005693895251238</v>
+        <v>1.005693895251235</v>
       </c>
       <c r="O4">
-        <v>0.6348876951946473</v>
+        <v>0.6348876951946484</v>
       </c>
       <c r="P4">
-        <v>0.8307352055979551</v>
+        <v>0.8307352055979588</v>
       </c>
       <c r="Q4">
-        <v>17.57011779629443</v>
+        <v>17.57011779629456</v>
       </c>
       <c r="R4">
-        <v>-106.9885815722256</v>
+        <v>-106.988581572225</v>
       </c>
       <c r="S4">
         <v>158.5647675409582</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.005693895246946</v>
+        <v>1.005693895246943</v>
       </c>
       <c r="O5">
-        <v>0.634887695198733</v>
+        <v>0.634887695198734</v>
       </c>
       <c r="P5">
-        <v>0.8307352056047127</v>
+        <v>0.8307352056047161</v>
       </c>
       <c r="Q5">
-        <v>17.57011779660419</v>
+        <v>17.57011779660431</v>
       </c>
       <c r="R5">
-        <v>-106.9885815710309</v>
+        <v>-106.9885815710303</v>
       </c>
       <c r="S5">
         <v>158.5647675408531</v>
@@ -2823,19 +2823,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.005693895246946</v>
+        <v>1.005693895246943</v>
       </c>
       <c r="O6">
-        <v>0.634887695198733</v>
+        <v>0.6348876951987341</v>
       </c>
       <c r="P6">
-        <v>0.8307352056047127</v>
+        <v>0.8307352056047161</v>
       </c>
       <c r="Q6">
-        <v>17.57011779660418</v>
+        <v>17.57011779660432</v>
       </c>
       <c r="R6">
-        <v>-106.9885815710309</v>
+        <v>-106.9885815710303</v>
       </c>
       <c r="S6">
         <v>158.5647675408531</v>
@@ -2954,19 +2954,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9949806626618445</v>
+        <v>0.9949806626618443</v>
       </c>
       <c r="O2">
-        <v>0.9175617791399003</v>
+        <v>0.9175617791399011</v>
       </c>
       <c r="P2">
-        <v>0.9648695716021195</v>
+        <v>0.9648695716021203</v>
       </c>
       <c r="Q2">
-        <v>27.43727595412387</v>
+        <v>27.4372759541239</v>
       </c>
       <c r="R2">
-        <v>-92.12802105335015</v>
+        <v>-92.12802105335008</v>
       </c>
       <c r="S2">
         <v>151.6304298035849</v>
@@ -2980,52 +2980,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.795733578210679</v>
+        <v>1.795733578210654</v>
       </c>
       <c r="D3">
-        <v>1.795733578210679</v>
+        <v>1.795733578210654</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.73534529545571</v>
+        <v>20.73534529545542</v>
       </c>
       <c r="G3">
-        <v>20.73534529545571</v>
+        <v>20.73534529545542</v>
       </c>
       <c r="H3">
-        <v>0.02360758232897998</v>
+        <v>11.73126388223656</v>
       </c>
       <c r="I3">
-        <v>51.70817167030347</v>
+        <v>-1152.612643848088</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814905</v>
+        <v>0.1153518595431223</v>
       </c>
       <c r="K3">
-        <v>2.416397540693368</v>
+        <v>2.416397540812901</v>
       </c>
       <c r="L3">
-        <v>0.115351859471408</v>
+        <v>0.1153518594637903</v>
       </c>
       <c r="M3">
-        <v>2.416397540675161</v>
+        <v>2.416397540689334</v>
       </c>
       <c r="N3">
-        <v>1.005693895264115</v>
+        <v>1.005693895264112</v>
       </c>
       <c r="O3">
-        <v>0.63488769518239</v>
+        <v>0.6348876951823911</v>
       </c>
       <c r="P3">
-        <v>0.8307352055776828</v>
+        <v>0.8307352055776863</v>
       </c>
       <c r="Q3">
-        <v>17.57011779536516</v>
+        <v>17.57011779536531</v>
       </c>
       <c r="R3">
-        <v>-106.9885815758096</v>
+        <v>-106.988581575809</v>
       </c>
       <c r="S3">
         <v>158.5647675412735</v>
@@ -3072,19 +3072,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.005693895251238</v>
+        <v>1.005693895251235</v>
       </c>
       <c r="O4">
-        <v>0.6348876951946473</v>
+        <v>0.6348876951946484</v>
       </c>
       <c r="P4">
-        <v>0.8307352055979551</v>
+        <v>0.8307352055979588</v>
       </c>
       <c r="Q4">
-        <v>17.57011779629443</v>
+        <v>17.57011779629456</v>
       </c>
       <c r="R4">
-        <v>-106.9885815722256</v>
+        <v>-106.988581572225</v>
       </c>
       <c r="S4">
         <v>158.5647675409582</v>
@@ -3131,19 +3131,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.005693895246946</v>
+        <v>1.005693895246943</v>
       </c>
       <c r="O5">
-        <v>0.634887695198733</v>
+        <v>0.634887695198734</v>
       </c>
       <c r="P5">
-        <v>0.8307352056047127</v>
+        <v>0.8307352056047161</v>
       </c>
       <c r="Q5">
-        <v>17.57011779660419</v>
+        <v>17.57011779660431</v>
       </c>
       <c r="R5">
-        <v>-106.9885815710309</v>
+        <v>-106.9885815710303</v>
       </c>
       <c r="S5">
         <v>158.5647675408531</v>
@@ -3190,19 +3190,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.005693895246946</v>
+        <v>1.005693895246943</v>
       </c>
       <c r="O6">
-        <v>0.634887695198733</v>
+        <v>0.6348876951987341</v>
       </c>
       <c r="P6">
-        <v>0.8307352056047127</v>
+        <v>0.8307352056047161</v>
       </c>
       <c r="Q6">
-        <v>17.57011779660418</v>
+        <v>17.57011779660432</v>
       </c>
       <c r="R6">
-        <v>-106.9885815710309</v>
+        <v>-106.9885815710303</v>
       </c>
       <c r="S6">
         <v>158.5647675408531</v>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.087911454520611</v>
+        <v>1.100590668576981</v>
       </c>
       <c r="O2">
-        <v>1.100000023842378</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>1.086473327129333</v>
+        <v>1.100667286473958</v>
       </c>
       <c r="Q2">
-        <v>30.45505986621952</v>
+        <v>29.97764155423927</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.6741708812349</v>
+        <v>150.0154448580056</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6766793457496074</v>
+        <v>0.03319168280248345</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.813620048471915</v>
+        <v>0.3832645400174098</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3368,43 +3368,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01228991329331348</v>
+        <v>6.110149588943839</v>
       </c>
       <c r="I3">
-        <v>51.69459002692057</v>
+        <v>-1152.631588941172</v>
       </c>
       <c r="J3">
-        <v>0.1077319053235284</v>
+        <v>0.1077319051897563</v>
       </c>
       <c r="K3">
-        <v>2.308438694643201</v>
+        <v>2.308438694637482</v>
       </c>
       <c r="L3">
-        <v>0.1077319054125031</v>
+        <v>0.1077319054296977</v>
       </c>
       <c r="M3">
-        <v>2.308438694642826</v>
+        <v>2.308438694642145</v>
       </c>
       <c r="N3">
-        <v>1.034862894271766</v>
+        <v>1.103218933392889</v>
       </c>
       <c r="O3">
-        <v>1.100000023842451</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P3">
-        <v>1.031318204562458</v>
+        <v>1.103418228522969</v>
       </c>
       <c r="Q3">
-        <v>32.32277567180757</v>
+        <v>29.89155333886473</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999775</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>147.9898092982806</v>
+        <v>150.0904487713032</v>
       </c>
       <c r="T3">
-        <v>0.6766793457496074</v>
+        <v>0.03319168280248345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.034862894276692</v>
+        <v>1.103218933392649</v>
       </c>
       <c r="O4">
-        <v>1.100000023842451</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P4">
-        <v>1.031318204563498</v>
+        <v>1.103418228522907</v>
       </c>
       <c r="Q4">
-        <v>32.32277567187476</v>
+        <v>29.89155333886121</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999774</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>147.9898092985564</v>
+        <v>150.0904487712907</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.034862894278334</v>
+        <v>1.103218933392569</v>
       </c>
       <c r="O5">
-        <v>1.100000023842451</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P5">
-        <v>1.031318204563844</v>
+        <v>1.103418228522886</v>
       </c>
       <c r="Q5">
-        <v>32.32277567189717</v>
+        <v>29.89155333886005</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999773</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S5">
-        <v>147.9898092986484</v>
+        <v>150.0904487712865</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.034862894278334</v>
+        <v>1.103218933392569</v>
       </c>
       <c r="O6">
-        <v>1.100000023842451</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P6">
-        <v>1.031318204563844</v>
+        <v>1.103418228522886</v>
       </c>
       <c r="Q6">
-        <v>32.32277567189716</v>
+        <v>29.89155333886005</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999774</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S6">
-        <v>147.9898092986484</v>
+        <v>150.0904487712865</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.087911454520611</v>
+        <v>1.100590668576981</v>
       </c>
       <c r="O2">
-        <v>1.100000023842378</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>1.086473327129333</v>
+        <v>1.100667286473958</v>
       </c>
       <c r="Q2">
-        <v>30.45505986621952</v>
+        <v>29.97764155423927</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.6741708812349</v>
+        <v>150.0154448580056</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6766793457496074</v>
+        <v>0.03319168280248345</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.813620048471915</v>
+        <v>0.3832645400174098</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3753,43 +3753,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01228991329331348</v>
+        <v>6.110149588943839</v>
       </c>
       <c r="I3">
-        <v>51.69459002692057</v>
+        <v>-1152.631588941172</v>
       </c>
       <c r="J3">
-        <v>0.1077319053235284</v>
+        <v>0.1077319051897563</v>
       </c>
       <c r="K3">
-        <v>2.308438694643201</v>
+        <v>2.308438694637482</v>
       </c>
       <c r="L3">
-        <v>0.1077319054125031</v>
+        <v>0.1077319054296977</v>
       </c>
       <c r="M3">
-        <v>2.308438694642826</v>
+        <v>2.308438694642145</v>
       </c>
       <c r="N3">
-        <v>1.034862894271766</v>
+        <v>1.103218933392889</v>
       </c>
       <c r="O3">
-        <v>1.100000023842451</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P3">
-        <v>1.031318204562458</v>
+        <v>1.103418228522969</v>
       </c>
       <c r="Q3">
-        <v>32.32277567180757</v>
+        <v>29.89155333886473</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999775</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>147.9898092982806</v>
+        <v>150.0904487713032</v>
       </c>
       <c r="T3">
-        <v>0.6766793457496074</v>
+        <v>0.03319168280248345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.034862894276692</v>
+        <v>1.103218933392649</v>
       </c>
       <c r="O4">
-        <v>1.100000023842451</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P4">
-        <v>1.031318204563498</v>
+        <v>1.103418228522907</v>
       </c>
       <c r="Q4">
-        <v>32.32277567187476</v>
+        <v>29.89155333886121</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999774</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>147.9898092985564</v>
+        <v>150.0904487712907</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.034862894278334</v>
+        <v>1.103218933392569</v>
       </c>
       <c r="O5">
-        <v>1.100000023842451</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P5">
-        <v>1.031318204563844</v>
+        <v>1.103418228522886</v>
       </c>
       <c r="Q5">
-        <v>32.32277567189717</v>
+        <v>29.89155333886005</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999773</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S5">
-        <v>147.9898092986484</v>
+        <v>150.0904487712865</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.034862894278334</v>
+        <v>1.103218933392569</v>
       </c>
       <c r="O6">
-        <v>1.100000023842451</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P6">
-        <v>1.031318204563844</v>
+        <v>1.103418228522886</v>
       </c>
       <c r="Q6">
-        <v>32.32277567189716</v>
+        <v>29.89155333886005</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999774</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S6">
-        <v>147.9898092986484</v>
+        <v>150.0904487712865</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089479429129173</v>
+        <v>1.100592551628163</v>
       </c>
       <c r="O2">
-        <v>1.100000023842347</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>1.090761118621916</v>
+        <v>1.100679949669161</v>
       </c>
       <c r="Q2">
-        <v>30.24260029661309</v>
+        <v>29.97693672857544</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.642120338781</v>
+        <v>150.0151769239919</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.5225663212317312</v>
+        <v>0.03362566283046086</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.03407612465145</v>
+        <v>0.3882757097369234</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4138,43 +4138,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01228991329331348</v>
+        <v>6.110149588943839</v>
       </c>
       <c r="I3">
-        <v>51.69459002692057</v>
+        <v>-1152.631588941172</v>
       </c>
       <c r="J3">
-        <v>0.1077319053235284</v>
+        <v>0.1077319051897563</v>
       </c>
       <c r="K3">
-        <v>2.308438694643201</v>
+        <v>2.308438694637482</v>
       </c>
       <c r="L3">
-        <v>0.1077319054125031</v>
+        <v>0.1077319054296977</v>
       </c>
       <c r="M3">
-        <v>2.308438694642826</v>
+        <v>2.308438694642145</v>
       </c>
       <c r="N3">
-        <v>1.043702907371753</v>
+        <v>1.103232686683496</v>
       </c>
       <c r="O3">
-        <v>1.100000023842581</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P3">
-        <v>1.054025734328036</v>
+        <v>1.103486046595469</v>
       </c>
       <c r="Q3">
-        <v>31.16732341457356</v>
+        <v>29.88789382640544</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999746</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S3">
-        <v>147.9169914318449</v>
+        <v>150.0892255365222</v>
       </c>
       <c r="T3">
-        <v>0.5225663212317311</v>
+        <v>0.03362566283046086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.04370290737525</v>
+        <v>1.103232686683253</v>
       </c>
       <c r="O4">
-        <v>1.100000023842581</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P4">
-        <v>1.054025734328031</v>
+        <v>1.103486046595403</v>
       </c>
       <c r="Q4">
-        <v>31.16732341467059</v>
+        <v>29.88789382640204</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999744</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S4">
-        <v>147.9169914320578</v>
+        <v>150.0892255365096</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.043702907376415</v>
+        <v>1.103232686683172</v>
       </c>
       <c r="O5">
-        <v>1.100000023842581</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P5">
-        <v>1.054025734328029</v>
+        <v>1.103486046595381</v>
       </c>
       <c r="Q5">
-        <v>31.16732341470294</v>
+        <v>29.88789382640091</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999744</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S5">
-        <v>147.9169914321288</v>
+        <v>150.0892255365054</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.043702907376415</v>
+        <v>1.103232686683172</v>
       </c>
       <c r="O6">
-        <v>1.100000023842581</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P6">
-        <v>1.054025734328029</v>
+        <v>1.103486046595381</v>
       </c>
       <c r="Q6">
-        <v>31.16732341470295</v>
+        <v>29.88789382640091</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999746</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S6">
-        <v>147.9169914321288</v>
+        <v>150.0892255365054</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089479429129173</v>
+        <v>1.100592551628163</v>
       </c>
       <c r="O2">
-        <v>1.100000023842347</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>1.090761118621916</v>
+        <v>1.100679949669161</v>
       </c>
       <c r="Q2">
-        <v>30.24260029661309</v>
+        <v>29.97693672857544</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.642120338781</v>
+        <v>150.0151769239919</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.5225663212317312</v>
+        <v>0.03362566283046086</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.03407612465145</v>
+        <v>0.3882757097369234</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4674,43 +4674,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01228991329331348</v>
+        <v>6.110149588943839</v>
       </c>
       <c r="I3">
-        <v>51.69459002692057</v>
+        <v>-1152.631588941172</v>
       </c>
       <c r="J3">
-        <v>0.1077319053235284</v>
+        <v>0.1077319051897563</v>
       </c>
       <c r="K3">
-        <v>2.308438694643201</v>
+        <v>2.308438694637482</v>
       </c>
       <c r="L3">
-        <v>0.1077319054125031</v>
+        <v>0.1077319054296977</v>
       </c>
       <c r="M3">
-        <v>2.308438694642826</v>
+        <v>2.308438694642145</v>
       </c>
       <c r="N3">
-        <v>1.043702907371753</v>
+        <v>1.103232686683496</v>
       </c>
       <c r="O3">
-        <v>1.100000023842581</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P3">
-        <v>1.054025734328036</v>
+        <v>1.103486046595469</v>
       </c>
       <c r="Q3">
-        <v>31.16732341457356</v>
+        <v>29.88789382640544</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999746</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S3">
-        <v>147.9169914318449</v>
+        <v>150.0892255365222</v>
       </c>
       <c r="T3">
-        <v>0.5225663212317311</v>
+        <v>0.03362566283046086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.04370290737525</v>
+        <v>1.103232686683253</v>
       </c>
       <c r="O4">
-        <v>1.100000023842581</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P4">
-        <v>1.054025734328031</v>
+        <v>1.103486046595403</v>
       </c>
       <c r="Q4">
-        <v>31.16732341467059</v>
+        <v>29.88789382640204</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999744</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S4">
-        <v>147.9169914320578</v>
+        <v>150.0892255365096</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.043702907376415</v>
+        <v>1.103232686683172</v>
       </c>
       <c r="O5">
-        <v>1.100000023842581</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P5">
-        <v>1.054025734328029</v>
+        <v>1.103486046595381</v>
       </c>
       <c r="Q5">
-        <v>31.16732341470294</v>
+        <v>29.88789382640091</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999744</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S5">
-        <v>147.9169914321288</v>
+        <v>150.0892255365054</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.043702907376415</v>
+        <v>1.103232686683172</v>
       </c>
       <c r="O6">
-        <v>1.100000023842581</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P6">
-        <v>1.054025734328029</v>
+        <v>1.103486046595381</v>
       </c>
       <c r="Q6">
-        <v>31.16732341470295</v>
+        <v>29.88789382640091</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999746</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S6">
-        <v>147.9169914321288</v>
+        <v>150.0892255365054</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9875631530460024</v>
+        <v>1.000608097465595</v>
       </c>
       <c r="O2">
-        <v>1.00000000000001</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="P2">
-        <v>0.9860882253068575</v>
+        <v>1.000690936900322</v>
       </c>
       <c r="Q2">
-        <v>30.51544172844451</v>
+        <v>29.9744189790555</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.6302718202415</v>
+        <v>150.0173583236436</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6126649002611579</v>
+        <v>0.0301792500386257</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.074444901776295</v>
+        <v>0.3484799626748314</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5059,43 +5059,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02360758232900189</v>
+        <v>11.73126388223609</v>
       </c>
       <c r="I3">
-        <v>51.70817167030328</v>
+        <v>-1152.612643848089</v>
       </c>
       <c r="J3">
-        <v>0.115351859518411</v>
+        <v>0.1153518593841829</v>
       </c>
       <c r="K3">
-        <v>2.416397540676061</v>
+        <v>2.416397540669724</v>
       </c>
       <c r="L3">
-        <v>0.1153518594704743</v>
+        <v>0.1153518594866343</v>
       </c>
       <c r="M3">
-        <v>2.416397540675697</v>
+        <v>2.416397540675186</v>
       </c>
       <c r="N3">
-        <v>0.9383262346624899</v>
+        <v>1.003051985619942</v>
       </c>
       <c r="O3">
-        <v>1.000000000000686</v>
+        <v>0.9999999999999654</v>
       </c>
       <c r="P3">
-        <v>0.9349090119114025</v>
+        <v>1.003263368890061</v>
       </c>
       <c r="Q3">
-        <v>32.43040058768658</v>
+        <v>29.88542789829241</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999775</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S3">
-        <v>147.9007199697426</v>
+        <v>150.0935726301719</v>
       </c>
       <c r="T3">
-        <v>0.6126649002611579</v>
+        <v>0.03017925003862569</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9383262346695598</v>
+        <v>1.003051985619592</v>
       </c>
       <c r="O4">
-        <v>1.000000000000686</v>
+        <v>0.9999999999999654</v>
       </c>
       <c r="P4">
-        <v>0.9349090119149256</v>
+        <v>1.003263368889872</v>
       </c>
       <c r="Q4">
-        <v>32.43040058765391</v>
+        <v>29.88542789829332</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999777</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S4">
-        <v>147.9007199701197</v>
+        <v>150.0935726301551</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9383262346719162</v>
+        <v>1.003051985619476</v>
       </c>
       <c r="O5">
-        <v>1.000000000000686</v>
+        <v>0.9999999999999654</v>
       </c>
       <c r="P5">
-        <v>0.9349090119161002</v>
+        <v>1.003263368889808</v>
       </c>
       <c r="Q5">
-        <v>32.43040058764302</v>
+        <v>29.88542789829362</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999777</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S5">
-        <v>147.9007199702454</v>
+        <v>150.0935726301495</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9383262346719162</v>
+        <v>1.003051985619476</v>
       </c>
       <c r="O6">
-        <v>1.000000000000686</v>
+        <v>0.9999999999999654</v>
       </c>
       <c r="P6">
-        <v>0.9349090119161001</v>
+        <v>1.003263368889808</v>
       </c>
       <c r="Q6">
-        <v>32.43040058764302</v>
+        <v>29.88542789829362</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999777</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>147.9007199702453</v>
+        <v>150.0935726301495</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9875631530460024</v>
+        <v>1.000608097465595</v>
       </c>
       <c r="O2">
-        <v>1.00000000000001</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="P2">
-        <v>0.9860882253068575</v>
+        <v>1.000690936900322</v>
       </c>
       <c r="Q2">
-        <v>30.51544172844451</v>
+        <v>29.9744189790555</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.6302718202415</v>
+        <v>150.0173583236436</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6126649002611579</v>
+        <v>0.0301792500386257</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.074444901776295</v>
+        <v>0.3484799626748314</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5444,43 +5444,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02360758232900189</v>
+        <v>11.73126388223609</v>
       </c>
       <c r="I3">
-        <v>51.70817167030328</v>
+        <v>-1152.612643848089</v>
       </c>
       <c r="J3">
-        <v>0.115351859518411</v>
+        <v>0.1153518593841829</v>
       </c>
       <c r="K3">
-        <v>2.416397540676061</v>
+        <v>2.416397540669724</v>
       </c>
       <c r="L3">
-        <v>0.1153518594704743</v>
+        <v>0.1153518594866343</v>
       </c>
       <c r="M3">
-        <v>2.416397540675697</v>
+        <v>2.416397540675186</v>
       </c>
       <c r="N3">
-        <v>0.9383262346624899</v>
+        <v>1.003051985619942</v>
       </c>
       <c r="O3">
-        <v>1.000000000000686</v>
+        <v>0.9999999999999654</v>
       </c>
       <c r="P3">
-        <v>0.9349090119114025</v>
+        <v>1.003263368890061</v>
       </c>
       <c r="Q3">
-        <v>32.43040058768658</v>
+        <v>29.88542789829241</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999775</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S3">
-        <v>147.9007199697426</v>
+        <v>150.0935726301719</v>
       </c>
       <c r="T3">
-        <v>0.6126649002611579</v>
+        <v>0.03017925003862569</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9383262346695598</v>
+        <v>1.003051985619592</v>
       </c>
       <c r="O4">
-        <v>1.000000000000686</v>
+        <v>0.9999999999999654</v>
       </c>
       <c r="P4">
-        <v>0.9349090119149256</v>
+        <v>1.003263368889872</v>
       </c>
       <c r="Q4">
-        <v>32.43040058765391</v>
+        <v>29.88542789829332</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999777</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S4">
-        <v>147.9007199701197</v>
+        <v>150.0935726301551</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9383262346719162</v>
+        <v>1.003051985619476</v>
       </c>
       <c r="O5">
-        <v>1.000000000000686</v>
+        <v>0.9999999999999654</v>
       </c>
       <c r="P5">
-        <v>0.9349090119161002</v>
+        <v>1.003263368889808</v>
       </c>
       <c r="Q5">
-        <v>32.43040058764302</v>
+        <v>29.88542789829362</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999777</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S5">
-        <v>147.9007199702454</v>
+        <v>150.0935726301495</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9383262346719162</v>
+        <v>1.003051985619476</v>
       </c>
       <c r="O6">
-        <v>1.000000000000686</v>
+        <v>0.9999999999999654</v>
       </c>
       <c r="P6">
-        <v>0.9349090119161001</v>
+        <v>1.003263368889808</v>
       </c>
       <c r="Q6">
-        <v>32.43040058764302</v>
+        <v>29.88542789829362</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999777</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>147.9007199702453</v>
+        <v>150.0935726301495</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9891685806350622</v>
+        <v>1.000609905645625</v>
       </c>
       <c r="O2">
-        <v>0.9999999999998277</v>
+        <v>0.9999999999999978</v>
       </c>
       <c r="P2">
-        <v>0.9904864970840934</v>
+        <v>1.000703968788764</v>
       </c>
       <c r="Q2">
-        <v>30.2753562019351</v>
+        <v>29.9736168274491</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.5943058853004</v>
+        <v>150.0170463794584</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4735666430153886</v>
+        <v>0.03057187856254761</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.468276576483241</v>
+        <v>0.3530136463543883</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5829,43 +5829,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02360758232900189</v>
+        <v>11.73126388223609</v>
       </c>
       <c r="I3">
-        <v>51.70817167030328</v>
+        <v>-1152.612643848089</v>
       </c>
       <c r="J3">
-        <v>0.115351859518411</v>
+        <v>0.1153518593841829</v>
       </c>
       <c r="K3">
-        <v>2.416397540676061</v>
+        <v>2.416397540669724</v>
       </c>
       <c r="L3">
-        <v>0.1153518594704743</v>
+        <v>0.1153518594866343</v>
       </c>
       <c r="M3">
-        <v>2.416397540675697</v>
+        <v>2.416397540675186</v>
       </c>
       <c r="N3">
-        <v>0.9466316679700787</v>
+        <v>1.00306434921765</v>
       </c>
       <c r="O3">
-        <v>1.000000000000385</v>
+        <v>0.9999999999999661</v>
       </c>
       <c r="P3">
-        <v>0.9563641300866174</v>
+        <v>1.003327674690676</v>
       </c>
       <c r="Q3">
-        <v>31.22539301801763</v>
+        <v>29.88158862098587</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999748</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>147.8257205606879</v>
+        <v>150.0922514769103</v>
       </c>
       <c r="T3">
-        <v>0.4735666430153885</v>
+        <v>0.03057187856254761</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9466316679754962</v>
+        <v>1.003064349217296</v>
       </c>
       <c r="O4">
-        <v>1.000000000000385</v>
+        <v>0.9999999999999661</v>
       </c>
       <c r="P4">
-        <v>0.9563641300883057</v>
+        <v>1.00332767469048</v>
       </c>
       <c r="Q4">
-        <v>31.22539301806755</v>
+        <v>29.88158862098706</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999748</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>147.8257205610003</v>
+        <v>150.0922514768935</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9466316679773022</v>
+        <v>1.003064349217178</v>
       </c>
       <c r="O5">
-        <v>1.000000000000385</v>
+        <v>0.9999999999999661</v>
       </c>
       <c r="P5">
-        <v>0.9563641300888683</v>
+        <v>1.003327674690414</v>
       </c>
       <c r="Q5">
-        <v>31.2253930180842</v>
+        <v>29.88158862098746</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999748</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>147.8257205611044</v>
+        <v>150.0922514768879</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9466316679773022</v>
+        <v>1.003064349217178</v>
       </c>
       <c r="O6">
-        <v>1.000000000000385</v>
+        <v>0.9999999999999661</v>
       </c>
       <c r="P6">
-        <v>0.9563641300888684</v>
+        <v>1.003327674690414</v>
       </c>
       <c r="Q6">
-        <v>31.22539301808421</v>
+        <v>29.88158862098746</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999747</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>147.8257205611044</v>
+        <v>150.0922514768879</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9891685806350622</v>
+        <v>1.000609905645625</v>
       </c>
       <c r="O2">
-        <v>0.9999999999998277</v>
+        <v>0.9999999999999978</v>
       </c>
       <c r="P2">
-        <v>0.9904864970840934</v>
+        <v>1.000703968788764</v>
       </c>
       <c r="Q2">
-        <v>30.2753562019351</v>
+        <v>29.9736168274491</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.5943058853004</v>
+        <v>150.0170463794584</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4735666430153886</v>
+        <v>0.03057187856254761</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.468276576483241</v>
+        <v>0.3530136463543883</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -6214,43 +6214,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02360758232900189</v>
+        <v>11.73126388223609</v>
       </c>
       <c r="I3">
-        <v>51.70817167030328</v>
+        <v>-1152.612643848089</v>
       </c>
       <c r="J3">
-        <v>0.115351859518411</v>
+        <v>0.1153518593841829</v>
       </c>
       <c r="K3">
-        <v>2.416397540676061</v>
+        <v>2.416397540669724</v>
       </c>
       <c r="L3">
-        <v>0.1153518594704743</v>
+        <v>0.1153518594866343</v>
       </c>
       <c r="M3">
-        <v>2.416397540675697</v>
+        <v>2.416397540675186</v>
       </c>
       <c r="N3">
-        <v>0.9466316679700787</v>
+        <v>1.00306434921765</v>
       </c>
       <c r="O3">
-        <v>1.000000000000385</v>
+        <v>0.9999999999999661</v>
       </c>
       <c r="P3">
-        <v>0.9563641300866174</v>
+        <v>1.003327674690676</v>
       </c>
       <c r="Q3">
-        <v>31.22539301801763</v>
+        <v>29.88158862098587</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999748</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>147.8257205606879</v>
+        <v>150.0922514769103</v>
       </c>
       <c r="T3">
-        <v>0.4735666430153885</v>
+        <v>0.03057187856254761</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9466316679754962</v>
+        <v>1.003064349217296</v>
       </c>
       <c r="O4">
-        <v>1.000000000000385</v>
+        <v>0.9999999999999661</v>
       </c>
       <c r="P4">
-        <v>0.9563641300883057</v>
+        <v>1.00332767469048</v>
       </c>
       <c r="Q4">
-        <v>31.22539301806755</v>
+        <v>29.88158862098706</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999748</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>147.8257205610003</v>
+        <v>150.0922514768935</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9466316679773022</v>
+        <v>1.003064349217178</v>
       </c>
       <c r="O5">
-        <v>1.000000000000385</v>
+        <v>0.9999999999999661</v>
       </c>
       <c r="P5">
-        <v>0.9563641300888683</v>
+        <v>1.003327674690414</v>
       </c>
       <c r="Q5">
-        <v>31.2253930180842</v>
+        <v>29.88158862098746</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999748</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>147.8257205611044</v>
+        <v>150.0922514768879</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9466316679773022</v>
+        <v>1.003064349217178</v>
       </c>
       <c r="O6">
-        <v>1.000000000000385</v>
+        <v>0.9999999999999661</v>
       </c>
       <c r="P6">
-        <v>0.9563641300888684</v>
+        <v>1.003327674690414</v>
       </c>
       <c r="Q6">
-        <v>31.22539301808421</v>
+        <v>29.88158862098746</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999747</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>147.8257205611044</v>
+        <v>150.0922514768879</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.043191714507865</v>
+        <v>1.046750743691312</v>
       </c>
       <c r="O2">
-        <v>0.8909260930525269</v>
+        <v>0.8909260930523742</v>
       </c>
       <c r="P2">
-        <v>1.052909935664805</v>
+        <v>1.05682420006122</v>
       </c>
       <c r="Q2">
-        <v>25.3001172568514</v>
+        <v>25.18334038786542</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314228</v>
+        <v>-89.2860043031485</v>
       </c>
       <c r="S2">
-        <v>154.9964071213159</v>
+        <v>155.0709058644903</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6584,58 +6584,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.755177813373821</v>
+        <v>4.760381945092538</v>
       </c>
       <c r="D3">
-        <v>4.771521585631094</v>
+        <v>4.759522143328609</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.90806381191823</v>
+        <v>54.96815594889223</v>
       </c>
       <c r="G3">
-        <v>55.09678543816444</v>
+        <v>54.95822781329515</v>
       </c>
       <c r="H3">
-        <v>0.01228991329332984</v>
+        <v>6.110149588943065</v>
       </c>
       <c r="I3">
-        <v>51.69459002692074</v>
+        <v>-1152.63158894117</v>
       </c>
       <c r="J3">
-        <v>0.1077319054037681</v>
+        <v>0.1077319054656351</v>
       </c>
       <c r="K3">
-        <v>2.308438694626183</v>
+        <v>2.308438694744775</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135608</v>
+        <v>0.1077319054056449</v>
       </c>
       <c r="M3">
-        <v>2.30843869464225</v>
+        <v>2.308438694657411</v>
       </c>
       <c r="N3">
-        <v>0.9318218419616012</v>
+        <v>0.9535825966123108</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.931821841962618</v>
+        <v>0.9535825966128085</v>
       </c>
       <c r="Q3">
-        <v>0.05810097842053494</v>
+        <v>-0.002984654624635958</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9418990215748</v>
+        <v>179.997015345376</v>
       </c>
       <c r="T3">
-        <v>0.3605103803485837</v>
+        <v>0.01654594942051747</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9318218419357933</v>
+        <v>0.9535825965854946</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9318218419903045</v>
+        <v>0.9535825966395377</v>
       </c>
       <c r="Q4">
-        <v>0.05810097993274457</v>
+        <v>-0.002984653209666814</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9418990229675</v>
+        <v>179.9970153439557</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9318218419271905</v>
+        <v>0.9535825965765562</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9318218419995333</v>
+        <v>0.9535825966484472</v>
       </c>
       <c r="Q5">
-        <v>0.05810098043680086</v>
+        <v>-0.002984652738019246</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9418990234318</v>
+        <v>179.9970153434823</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9318218419271909</v>
+        <v>0.9535825965765562</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9318218419995333</v>
+        <v>0.9535825966484471</v>
       </c>
       <c r="Q6">
-        <v>0.05810098043680099</v>
+        <v>-0.002984652738022646</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9418990234318</v>
+        <v>179.9970153434823</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.043191714507865</v>
+        <v>1.046750743691312</v>
       </c>
       <c r="O2">
-        <v>0.8909260930525269</v>
+        <v>0.8909260930523742</v>
       </c>
       <c r="P2">
-        <v>1.052909935664805</v>
+        <v>1.05682420006122</v>
       </c>
       <c r="Q2">
-        <v>25.3001172568514</v>
+        <v>25.18334038786542</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314228</v>
+        <v>-89.2860043031485</v>
       </c>
       <c r="S2">
-        <v>154.9964071213159</v>
+        <v>155.0709058644903</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6969,58 +6969,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.755177813373821</v>
+        <v>4.760381945092538</v>
       </c>
       <c r="D3">
-        <v>4.771521585631094</v>
+        <v>4.759522143328609</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.90806381191823</v>
+        <v>54.96815594889223</v>
       </c>
       <c r="G3">
-        <v>55.09678543816444</v>
+        <v>54.95822781329515</v>
       </c>
       <c r="H3">
-        <v>0.01228991329332984</v>
+        <v>6.110149588943065</v>
       </c>
       <c r="I3">
-        <v>51.69459002692074</v>
+        <v>-1152.63158894117</v>
       </c>
       <c r="J3">
-        <v>0.1077319054037681</v>
+        <v>0.1077319054656351</v>
       </c>
       <c r="K3">
-        <v>2.308438694626183</v>
+        <v>2.308438694744775</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135608</v>
+        <v>0.1077319054056449</v>
       </c>
       <c r="M3">
-        <v>2.30843869464225</v>
+        <v>2.308438694657411</v>
       </c>
       <c r="N3">
-        <v>0.9318218419616012</v>
+        <v>0.9535825966123108</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.931821841962618</v>
+        <v>0.9535825966128085</v>
       </c>
       <c r="Q3">
-        <v>0.05810097842053494</v>
+        <v>-0.002984654624635958</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9418990215748</v>
+        <v>179.997015345376</v>
       </c>
       <c r="T3">
-        <v>0.3605103803485837</v>
+        <v>0.01654594942051747</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9318218419357933</v>
+        <v>0.9535825965854946</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9318218419903045</v>
+        <v>0.9535825966395377</v>
       </c>
       <c r="Q4">
-        <v>0.05810097993274457</v>
+        <v>-0.002984653209666814</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9418990229675</v>
+        <v>179.9970153439557</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9318218419271905</v>
+        <v>0.9535825965765562</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9318218419995333</v>
+        <v>0.9535825966484472</v>
       </c>
       <c r="Q5">
-        <v>0.05810098043680086</v>
+        <v>-0.002984652738019246</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9418990234318</v>
+        <v>179.9970153434823</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9318218419271909</v>
+        <v>0.9535825965765562</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9318218419995333</v>
+        <v>0.9535825966484471</v>
       </c>
       <c r="Q6">
-        <v>0.05810098043680099</v>
+        <v>-0.002984652738022646</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9418990234318</v>
+        <v>179.9970153434823</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.096909112963079</v>
+        <v>1.100124191926552</v>
       </c>
       <c r="O2">
-        <v>1.052967690033283</v>
+        <v>1.052967690033154</v>
       </c>
       <c r="P2">
-        <v>1.073805636573299</v>
+        <v>1.076935970171184</v>
       </c>
       <c r="Q2">
-        <v>28.66838746366263</v>
+        <v>28.58078339171126</v>
       </c>
       <c r="R2">
-        <v>-91.44286082238079</v>
+        <v>-91.44286082238195</v>
       </c>
       <c r="S2">
-        <v>150.6448203979543</v>
+        <v>150.7424673359565</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7354,58 +7354,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.168865746753678</v>
+        <v>1.238551296268523</v>
       </c>
       <c r="D3">
-        <v>1.314061716337848</v>
+        <v>1.228849200469052</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>13.49689907069538</v>
+        <v>14.30155848611583</v>
       </c>
       <c r="G3">
-        <v>15.17347771318876</v>
+        <v>14.18952833368527</v>
       </c>
       <c r="H3">
-        <v>0.01228991329332984</v>
+        <v>6.110149588943065</v>
       </c>
       <c r="I3">
-        <v>51.69459002692074</v>
+        <v>-1152.63158894117</v>
       </c>
       <c r="J3">
-        <v>0.1077319054037681</v>
+        <v>0.1077319054656351</v>
       </c>
       <c r="K3">
-        <v>2.308438694626183</v>
+        <v>2.308438694744775</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135608</v>
+        <v>0.1077319054056449</v>
       </c>
       <c r="M3">
-        <v>2.30843869464225</v>
+        <v>2.308438694657411</v>
       </c>
       <c r="N3">
-        <v>1.097621028582164</v>
+        <v>1.115665198154863</v>
       </c>
       <c r="O3">
-        <v>0.8723446855797308</v>
+        <v>0.8723446855796178</v>
       </c>
       <c r="P3">
-        <v>0.9605330069427555</v>
+        <v>0.9769573463537461</v>
       </c>
       <c r="Q3">
-        <v>22.9541761523928</v>
+        <v>22.6376675992678</v>
       </c>
       <c r="R3">
-        <v>-100.051016339622</v>
+        <v>-100.0510163396292</v>
       </c>
       <c r="S3">
-        <v>153.34643795268</v>
+        <v>153.9174473732662</v>
       </c>
       <c r="T3">
-        <v>0.3132549327245958</v>
+        <v>0.01665347660498485</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.097621028575342</v>
+        <v>1.115665198146941</v>
       </c>
       <c r="O4">
-        <v>0.8723446855794282</v>
+        <v>0.8723446855793155</v>
       </c>
       <c r="P4">
-        <v>0.9605330069517832</v>
+        <v>0.9769573463625719</v>
       </c>
       <c r="Q4">
-        <v>22.9541761526799</v>
+        <v>22.63766759951653</v>
       </c>
       <c r="R4">
-        <v>-100.0510163384073</v>
+        <v>-100.0510163384144</v>
       </c>
       <c r="S4">
-        <v>153.3464379529152</v>
+        <v>153.9174473734211</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.097621028573068</v>
+        <v>1.1156651981443</v>
       </c>
       <c r="O5">
-        <v>0.8723446855793276</v>
+        <v>0.872344685579215</v>
       </c>
       <c r="P5">
-        <v>0.9605330069547925</v>
+        <v>0.976957346365514</v>
       </c>
       <c r="Q5">
-        <v>22.9541761527756</v>
+        <v>22.63766759959944</v>
       </c>
       <c r="R5">
-        <v>-100.0510163380023</v>
+        <v>-100.0510163380095</v>
       </c>
       <c r="S5">
-        <v>153.3464379529936</v>
+        <v>153.9174473734727</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.097621028573068</v>
+        <v>1.1156651981443</v>
       </c>
       <c r="O6">
-        <v>0.8723446855793276</v>
+        <v>0.8723446855792147</v>
       </c>
       <c r="P6">
-        <v>0.9605330069547925</v>
+        <v>0.976957346365514</v>
       </c>
       <c r="Q6">
-        <v>22.9541761527756</v>
+        <v>22.63766759959944</v>
       </c>
       <c r="R6">
-        <v>-100.0510163380023</v>
+        <v>-100.0510163380095</v>
       </c>
       <c r="S6">
-        <v>153.3464379529936</v>
+        <v>153.9174473734727</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.096909112963079</v>
+        <v>1.100124191926552</v>
       </c>
       <c r="O2">
-        <v>1.052967690033283</v>
+        <v>1.052967690033154</v>
       </c>
       <c r="P2">
-        <v>1.073805636573299</v>
+        <v>1.076935970171184</v>
       </c>
       <c r="Q2">
-        <v>28.66838746366263</v>
+        <v>28.58078339171126</v>
       </c>
       <c r="R2">
-        <v>-91.44286082238079</v>
+        <v>-91.44286082238195</v>
       </c>
       <c r="S2">
-        <v>150.6448203979543</v>
+        <v>150.7424673359565</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7739,58 +7739,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.168865746753678</v>
+        <v>1.238551296268523</v>
       </c>
       <c r="D3">
-        <v>1.314061716337848</v>
+        <v>1.228849200469052</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>13.49689907069538</v>
+        <v>14.30155848611583</v>
       </c>
       <c r="G3">
-        <v>15.17347771318876</v>
+        <v>14.18952833368527</v>
       </c>
       <c r="H3">
-        <v>0.01228991329332984</v>
+        <v>6.110149588943065</v>
       </c>
       <c r="I3">
-        <v>51.69459002692074</v>
+        <v>-1152.63158894117</v>
       </c>
       <c r="J3">
-        <v>0.1077319054037681</v>
+        <v>0.1077319054656351</v>
       </c>
       <c r="K3">
-        <v>2.308438694626183</v>
+        <v>2.308438694744775</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135608</v>
+        <v>0.1077319054056449</v>
       </c>
       <c r="M3">
-        <v>2.30843869464225</v>
+        <v>2.308438694657411</v>
       </c>
       <c r="N3">
-        <v>1.097621028582164</v>
+        <v>1.115665198154863</v>
       </c>
       <c r="O3">
-        <v>0.8723446855797308</v>
+        <v>0.8723446855796178</v>
       </c>
       <c r="P3">
-        <v>0.9605330069427555</v>
+        <v>0.9769573463537461</v>
       </c>
       <c r="Q3">
-        <v>22.9541761523928</v>
+        <v>22.6376675992678</v>
       </c>
       <c r="R3">
-        <v>-100.051016339622</v>
+        <v>-100.0510163396292</v>
       </c>
       <c r="S3">
-        <v>153.34643795268</v>
+        <v>153.9174473732662</v>
       </c>
       <c r="T3">
-        <v>0.3132549327245958</v>
+        <v>0.01665347660498485</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.097621028575342</v>
+        <v>1.115665198146941</v>
       </c>
       <c r="O4">
-        <v>0.8723446855794282</v>
+        <v>0.8723446855793155</v>
       </c>
       <c r="P4">
-        <v>0.9605330069517832</v>
+        <v>0.9769573463625719</v>
       </c>
       <c r="Q4">
-        <v>22.9541761526799</v>
+        <v>22.63766759951653</v>
       </c>
       <c r="R4">
-        <v>-100.0510163384073</v>
+        <v>-100.0510163384144</v>
       </c>
       <c r="S4">
-        <v>153.3464379529152</v>
+        <v>153.9174473734211</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.097621028573068</v>
+        <v>1.1156651981443</v>
       </c>
       <c r="O5">
-        <v>0.8723446855793276</v>
+        <v>0.872344685579215</v>
       </c>
       <c r="P5">
-        <v>0.9605330069547925</v>
+        <v>0.976957346365514</v>
       </c>
       <c r="Q5">
-        <v>22.9541761527756</v>
+        <v>22.63766759959944</v>
       </c>
       <c r="R5">
-        <v>-100.0510163380023</v>
+        <v>-100.0510163380095</v>
       </c>
       <c r="S5">
-        <v>153.3464379529936</v>
+        <v>153.9174473734727</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.097621028573068</v>
+        <v>1.1156651981443</v>
       </c>
       <c r="O6">
-        <v>0.8723446855793276</v>
+        <v>0.8723446855792147</v>
       </c>
       <c r="P6">
-        <v>0.9605330069547925</v>
+        <v>0.976957346365514</v>
       </c>
       <c r="Q6">
-        <v>22.9541761527756</v>
+        <v>22.63766759959944</v>
       </c>
       <c r="R6">
-        <v>-100.0510163380023</v>
+        <v>-100.0510163380095</v>
       </c>
       <c r="S6">
-        <v>153.3464379529936</v>
+        <v>153.9174473734727</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9441955861759403</v>
+        <v>0.9478843000209686</v>
       </c>
       <c r="O2">
-        <v>0.7936674232739497</v>
+        <v>0.7936674232739536</v>
       </c>
       <c r="P2">
-        <v>0.9536126383319432</v>
+        <v>0.9576621680408792</v>
       </c>
       <c r="Q2">
-        <v>24.87712929810523</v>
+        <v>24.74572603310029</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897323</v>
+        <v>-89.22492623897006</v>
       </c>
       <c r="S2">
-        <v>155.4379301256963</v>
+        <v>155.520906567809</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8124,58 +8124,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.129369485866961</v>
+        <v>4.134126929231217</v>
       </c>
       <c r="D3">
-        <v>4.144462906911243</v>
+        <v>4.1332558864954</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.68185168497433</v>
+        <v>47.7367859091145</v>
       </c>
       <c r="G3">
-        <v>47.8561354990325</v>
+        <v>47.72672797395449</v>
       </c>
       <c r="H3">
-        <v>0.02360758232897998</v>
+        <v>11.73126388223656</v>
       </c>
       <c r="I3">
-        <v>51.70817167030347</v>
+        <v>-1152.612643848088</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814905</v>
+        <v>0.1153518595431223</v>
       </c>
       <c r="K3">
-        <v>2.416397540693368</v>
+        <v>2.416397540812901</v>
       </c>
       <c r="L3">
-        <v>0.115351859471408</v>
+        <v>0.1153518594637903</v>
       </c>
       <c r="M3">
-        <v>2.416397540675161</v>
+        <v>2.416397540689334</v>
       </c>
       <c r="N3">
-        <v>0.8462512019154306</v>
+        <v>0.8669336090963751</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8462512019153683</v>
+        <v>0.8669336090965276</v>
       </c>
       <c r="Q3">
-        <v>0.06185191726100762</v>
+        <v>-0.00348160615620521</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9381480828084</v>
+        <v>179.9965183937727</v>
       </c>
       <c r="T3">
-        <v>0.3273181342064073</v>
+        <v>0.0150421516520063</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8462512018928121</v>
+        <v>0.8669336090719582</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8462512019413356</v>
+        <v>0.8669336091207906</v>
       </c>
       <c r="Q4">
-        <v>0.06185192011111573</v>
+        <v>-0.003481603437095063</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9381480855386</v>
+        <v>179.9965183910483</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8462512018852724</v>
+        <v>0.8669336090638191</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8462512019499911</v>
+        <v>0.8669336091288781</v>
       </c>
       <c r="Q5">
-        <v>0.06185192106114951</v>
+        <v>-0.003481602530732432</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9381480864487</v>
+        <v>179.9965183901402</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8462512018852725</v>
+        <v>0.8669336090638191</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8462512019499911</v>
+        <v>0.8669336091288781</v>
       </c>
       <c r="Q6">
-        <v>0.06185192106115215</v>
+        <v>-0.003481602530727435</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9381480864487</v>
+        <v>179.9965183901402</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9441955861759403</v>
+        <v>0.9478843000209686</v>
       </c>
       <c r="O2">
-        <v>0.7936674232739497</v>
+        <v>0.7936674232739536</v>
       </c>
       <c r="P2">
-        <v>0.9536126383319432</v>
+        <v>0.9576621680408792</v>
       </c>
       <c r="Q2">
-        <v>24.87712929810523</v>
+        <v>24.74572603310029</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897323</v>
+        <v>-89.22492623897006</v>
       </c>
       <c r="S2">
-        <v>155.4379301256963</v>
+        <v>155.520906567809</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8660,58 +8660,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.129369485866961</v>
+        <v>4.134126929231217</v>
       </c>
       <c r="D3">
-        <v>4.144462906911243</v>
+        <v>4.1332558864954</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.68185168497433</v>
+        <v>47.7367859091145</v>
       </c>
       <c r="G3">
-        <v>47.8561354990325</v>
+        <v>47.72672797395449</v>
       </c>
       <c r="H3">
-        <v>0.02360758232897998</v>
+        <v>11.73126388223656</v>
       </c>
       <c r="I3">
-        <v>51.70817167030347</v>
+        <v>-1152.612643848088</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814905</v>
+        <v>0.1153518595431223</v>
       </c>
       <c r="K3">
-        <v>2.416397540693368</v>
+        <v>2.416397540812901</v>
       </c>
       <c r="L3">
-        <v>0.115351859471408</v>
+        <v>0.1153518594637903</v>
       </c>
       <c r="M3">
-        <v>2.416397540675161</v>
+        <v>2.416397540689334</v>
       </c>
       <c r="N3">
-        <v>0.8462512019154306</v>
+        <v>0.8669336090963751</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8462512019153683</v>
+        <v>0.8669336090965276</v>
       </c>
       <c r="Q3">
-        <v>0.06185191726100762</v>
+        <v>-0.00348160615620521</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9381480828084</v>
+        <v>179.9965183937727</v>
       </c>
       <c r="T3">
-        <v>0.3273181342064073</v>
+        <v>0.0150421516520063</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8462512018928121</v>
+        <v>0.8669336090719582</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8462512019413356</v>
+        <v>0.8669336091207906</v>
       </c>
       <c r="Q4">
-        <v>0.06185192011111573</v>
+        <v>-0.003481603437095063</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9381480855386</v>
+        <v>179.9965183910483</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8462512018852724</v>
+        <v>0.8669336090638191</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8462512019499911</v>
+        <v>0.8669336091288781</v>
       </c>
       <c r="Q5">
-        <v>0.06185192106114951</v>
+        <v>-0.003481602530732432</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9381480864487</v>
+        <v>179.9965183901402</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8462512018852725</v>
+        <v>0.8669336090638191</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8462512019499911</v>
+        <v>0.8669336091288781</v>
       </c>
       <c r="Q6">
-        <v>0.06185192106115215</v>
+        <v>-0.003481602530727435</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9381480864487</v>
+        <v>179.9965183901402</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9966771948694988</v>
+        <v>0.9999997841846923</v>
       </c>
       <c r="O2">
-        <v>0.9517844802528788</v>
+        <v>0.951784480252902</v>
       </c>
       <c r="P2">
-        <v>0.9732899596129518</v>
+        <v>0.9765236616391482</v>
       </c>
       <c r="Q2">
-        <v>28.50266348885228</v>
+        <v>28.40373387950712</v>
       </c>
       <c r="R2">
-        <v>-91.61401138281181</v>
+        <v>-91.61401138281124</v>
       </c>
       <c r="S2">
-        <v>150.7349699810795</v>
+        <v>150.8457673810871</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9045,58 +9045,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.052000250472814</v>
+        <v>1.11436785981983</v>
       </c>
       <c r="D3">
-        <v>1.182253799695271</v>
+        <v>1.105563276491895</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>12.14745255596066</v>
+        <v>12.86761167686492</v>
       </c>
       <c r="G3">
-        <v>13.65149099009045</v>
+        <v>12.76594510577521</v>
       </c>
       <c r="H3">
-        <v>0.02360758232897998</v>
+        <v>11.73126388223656</v>
       </c>
       <c r="I3">
-        <v>51.70817167030347</v>
+        <v>-1152.612643848088</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814905</v>
+        <v>0.1153518595431223</v>
       </c>
       <c r="K3">
-        <v>2.416397540693368</v>
+        <v>2.416397540812901</v>
       </c>
       <c r="L3">
-        <v>0.115351859471408</v>
+        <v>0.1153518594637903</v>
       </c>
       <c r="M3">
-        <v>2.416397540675161</v>
+        <v>2.416397540689334</v>
       </c>
       <c r="N3">
-        <v>0.9969372067204432</v>
+        <v>1.014109644186109</v>
       </c>
       <c r="O3">
-        <v>0.7848521014140679</v>
+        <v>0.7848521014138798</v>
       </c>
       <c r="P3">
-        <v>0.8690725778910025</v>
+        <v>0.8847287066129584</v>
       </c>
       <c r="Q3">
-        <v>22.69524639203599</v>
+        <v>22.36744262521256</v>
       </c>
       <c r="R3">
-        <v>-100.4045966786927</v>
+        <v>-100.4045966786919</v>
       </c>
       <c r="S3">
-        <v>153.5353035652773</v>
+        <v>154.1301337873388</v>
       </c>
       <c r="T3">
-        <v>0.2844548805420157</v>
+        <v>0.01513941677800286</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9969372067138381</v>
+        <v>1.014109644177752</v>
       </c>
       <c r="O4">
-        <v>0.7848521014216441</v>
+        <v>0.7848521014214561</v>
       </c>
       <c r="P4">
-        <v>0.8690725779046313</v>
+        <v>0.884728706625745</v>
       </c>
       <c r="Q4">
-        <v>22.69524639262375</v>
+        <v>22.3674426257675</v>
       </c>
       <c r="R4">
-        <v>-100.4045966769007</v>
+        <v>-100.4045966768999</v>
       </c>
       <c r="S4">
-        <v>153.5353035653565</v>
+        <v>154.1301337873098</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9969372067116364</v>
+        <v>1.014109644174967</v>
       </c>
       <c r="O5">
-        <v>0.7848521014241696</v>
+        <v>0.7848521014239815</v>
       </c>
       <c r="P5">
-        <v>0.8690725779091741</v>
+        <v>0.884728706630007</v>
       </c>
       <c r="Q5">
-        <v>22.69524639281968</v>
+        <v>22.36744262595247</v>
       </c>
       <c r="R5">
-        <v>-100.4045966763033</v>
+        <v>-100.4045966763026</v>
       </c>
       <c r="S5">
-        <v>153.5353035653829</v>
+        <v>154.1301337873001</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9969372067116365</v>
+        <v>1.014109644174967</v>
       </c>
       <c r="O6">
-        <v>0.7848521014241695</v>
+        <v>0.7848521014239815</v>
       </c>
       <c r="P6">
-        <v>0.8690725779091745</v>
+        <v>0.8847287066300069</v>
       </c>
       <c r="Q6">
-        <v>22.69524639281967</v>
+        <v>22.36744262595247</v>
       </c>
       <c r="R6">
-        <v>-100.4045966763033</v>
+        <v>-100.4045966763026</v>
       </c>
       <c r="S6">
-        <v>153.5353035653829</v>
+        <v>154.1301337873001</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9966771948694988</v>
+        <v>0.9999997841846923</v>
       </c>
       <c r="O2">
-        <v>0.9517844802528788</v>
+        <v>0.951784480252902</v>
       </c>
       <c r="P2">
-        <v>0.9732899596129518</v>
+        <v>0.9765236616391482</v>
       </c>
       <c r="Q2">
-        <v>28.50266348885228</v>
+        <v>28.40373387950712</v>
       </c>
       <c r="R2">
-        <v>-91.61401138281181</v>
+        <v>-91.61401138281124</v>
       </c>
       <c r="S2">
-        <v>150.7349699810795</v>
+        <v>150.8457673810871</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9430,58 +9430,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.052000250472814</v>
+        <v>1.11436785981983</v>
       </c>
       <c r="D3">
-        <v>1.182253799695271</v>
+        <v>1.105563276491895</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>12.14745255596066</v>
+        <v>12.86761167686492</v>
       </c>
       <c r="G3">
-        <v>13.65149099009045</v>
+        <v>12.76594510577521</v>
       </c>
       <c r="H3">
-        <v>0.02360758232897998</v>
+        <v>11.73126388223656</v>
       </c>
       <c r="I3">
-        <v>51.70817167030347</v>
+        <v>-1152.612643848088</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814905</v>
+        <v>0.1153518595431223</v>
       </c>
       <c r="K3">
-        <v>2.416397540693368</v>
+        <v>2.416397540812901</v>
       </c>
       <c r="L3">
-        <v>0.115351859471408</v>
+        <v>0.1153518594637903</v>
       </c>
       <c r="M3">
-        <v>2.416397540675161</v>
+        <v>2.416397540689334</v>
       </c>
       <c r="N3">
-        <v>0.9969372067204432</v>
+        <v>1.014109644186109</v>
       </c>
       <c r="O3">
-        <v>0.7848521014140679</v>
+        <v>0.7848521014138798</v>
       </c>
       <c r="P3">
-        <v>0.8690725778910025</v>
+        <v>0.8847287066129584</v>
       </c>
       <c r="Q3">
-        <v>22.69524639203599</v>
+        <v>22.36744262521256</v>
       </c>
       <c r="R3">
-        <v>-100.4045966786927</v>
+        <v>-100.4045966786919</v>
       </c>
       <c r="S3">
-        <v>153.5353035652773</v>
+        <v>154.1301337873388</v>
       </c>
       <c r="T3">
-        <v>0.2844548805420157</v>
+        <v>0.01513941677800286</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9969372067138381</v>
+        <v>1.014109644177752</v>
       </c>
       <c r="O4">
-        <v>0.7848521014216441</v>
+        <v>0.7848521014214561</v>
       </c>
       <c r="P4">
-        <v>0.8690725779046313</v>
+        <v>0.884728706625745</v>
       </c>
       <c r="Q4">
-        <v>22.69524639262375</v>
+        <v>22.3674426257675</v>
       </c>
       <c r="R4">
-        <v>-100.4045966769007</v>
+        <v>-100.4045966768999</v>
       </c>
       <c r="S4">
-        <v>153.5353035653565</v>
+        <v>154.1301337873098</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9969372067116364</v>
+        <v>1.014109644174967</v>
       </c>
       <c r="O5">
-        <v>0.7848521014241696</v>
+        <v>0.7848521014239815</v>
       </c>
       <c r="P5">
-        <v>0.8690725779091741</v>
+        <v>0.884728706630007</v>
       </c>
       <c r="Q5">
-        <v>22.69524639281968</v>
+        <v>22.36744262595247</v>
       </c>
       <c r="R5">
-        <v>-100.4045966763033</v>
+        <v>-100.4045966763026</v>
       </c>
       <c r="S5">
-        <v>153.5353035653829</v>
+        <v>154.1301337873001</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9969372067116365</v>
+        <v>1.014109644174967</v>
       </c>
       <c r="O6">
-        <v>0.7848521014241695</v>
+        <v>0.7848521014239815</v>
       </c>
       <c r="P6">
-        <v>0.8690725779091745</v>
+        <v>0.8847287066300069</v>
       </c>
       <c r="Q6">
-        <v>22.69524639281967</v>
+        <v>22.36744262595247</v>
       </c>
       <c r="R6">
-        <v>-100.4045966763033</v>
+        <v>-100.4045966763026</v>
       </c>
       <c r="S6">
-        <v>153.5353035653829</v>
+        <v>154.1301337873001</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10538,19 +10538,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.04659506804995</v>
+        <v>1.046595068049951</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523821</v>
+        <v>0.8909260930523832</v>
       </c>
       <c r="P2">
         <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>25.1885020403398</v>
+        <v>25.18850204033982</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314906</v>
+        <v>-89.28600430314907</v>
       </c>
       <c r="S2">
         <v>155.0677071882993</v>
@@ -10564,55 +10564,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.759944874248876</v>
+        <v>4.75994487424885</v>
       </c>
       <c r="D3">
-        <v>4.759944874248876</v>
+        <v>4.75994487424885</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.96310908950736</v>
+        <v>54.96310908950706</v>
       </c>
       <c r="G3">
-        <v>54.96310908950736</v>
+        <v>54.96310908950706</v>
       </c>
       <c r="H3">
-        <v>0.01228991329332984</v>
+        <v>6.110149588943065</v>
       </c>
       <c r="I3">
-        <v>51.69459002692074</v>
+        <v>-1152.63158894117</v>
       </c>
       <c r="J3">
-        <v>0.1077319054037681</v>
+        <v>0.1077319054656351</v>
       </c>
       <c r="K3">
-        <v>2.308438694626183</v>
+        <v>2.308438694744775</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135608</v>
+        <v>0.1077319054056449</v>
       </c>
       <c r="M3">
-        <v>2.30843869464225</v>
+        <v>2.308438694657411</v>
       </c>
       <c r="N3">
-        <v>0.9526279648020818</v>
+        <v>0.952627964802082</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648025192</v>
+        <v>0.9526279648025191</v>
       </c>
       <c r="Q3">
-        <v>-4.014220150139428E-12</v>
+        <v>-3.874005566489526E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999999999899</v>
+        <v>-179.9999999999901</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279647753105</v>
+        <v>0.9526279647753106</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -10665,13 +10665,13 @@
         <v>0.9526279648292905</v>
       </c>
       <c r="Q4">
-        <v>1.415112117114867E-09</v>
+        <v>1.41524215924741E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999985764</v>
+        <v>179.9999999985762</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647663868</v>
+        <v>0.9526279647663869</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -10724,13 +10724,13 @@
         <v>0.952627964838214</v>
       </c>
       <c r="Q5">
-        <v>1.888142980812409E-09</v>
+        <v>1.88827911334938E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999981033</v>
+        <v>179.9999999981031</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647663868</v>
+        <v>0.952627964766387</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382141</v>
+        <v>0.952627964838214</v>
       </c>
       <c r="Q6">
-        <v>1.888140347700974E-09</v>
+        <v>1.888273373997414E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999981033</v>
+        <v>179.9999999981031</v>
       </c>
     </row>
   </sheetData>
